--- a/LuBan/Datas/Server/S_StartScene.xlsx
+++ b/LuBan/Datas/Server/S_StartScene.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>Enum.SceneType</t>
   </si>
   <si>
     <t>string</t>
@@ -1104,7 +1107,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -1113,7 +1116,7 @@
     <col min="2" max="2" width="4.45454545454545" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.72727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.72727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.9090909090909" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.90909090909091" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.9090909090909" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -1156,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -1167,45 +1170,45 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1219,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>10002</v>
@@ -1239,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>10003</v>
@@ -1259,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>10004</v>
@@ -1279,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1296,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1313,10 +1316,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/LuBan/Datas/Server/S_StartScene.xlsx
+++ b/LuBan/Datas/Server/S_StartScene.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -24,10 +24,10 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Zone</t>
+    <t>StartProcessConfig</t>
+  </si>
+  <si>
+    <t>StartZoneConfig</t>
   </si>
   <si>
     <t>SceneType</t>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>int#ref=StartProcessTable</t>
+  </si>
+  <si>
+    <t>int#ref=StartZoneTable</t>
   </si>
   <si>
     <t>Enum.SceneType</t>
@@ -1107,15 +1113,14 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.4545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.45454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.72727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.72727272727273" style="2" customWidth="1"/>
+    <col min="3" max="4" width="31.6363636363636" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.90909090909091" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.9090909090909" style="2" customWidth="1"/>
@@ -1153,16 +1158,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -1170,45 +1175,45 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1222,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>10002</v>
@@ -1242,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2">
         <v>10003</v>
@@ -1262,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>10004</v>
@@ -1282,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1299,10 +1304,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1316,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/LuBan/Datas/Server/S_StartScene.xlsx
+++ b/LuBan/Datas/Server/S_StartScene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="11520"/>
+    <workbookView windowWidth="24640" windowHeight="10310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Map2</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -1325,6 +1328,26 @@
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10005</v>
       </c>
     </row>
   </sheetData>

--- a/LuBan/Datas/Server/S_StartScene.xlsx
+++ b/LuBan/Datas/Server/S_StartScene.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
 </sst>
 </file>
@@ -1113,19 +1116,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.4545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.45454545454545" style="2" customWidth="1"/>
-    <col min="3" max="4" width="31.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.3636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5454545454545" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.90909090909091" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.8181818181818" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.9090909090909" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -1348,6 +1352,26 @@
       </c>
       <c r="G11" s="2">
         <v>10005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10006</v>
       </c>
     </row>
   </sheetData>
